--- a/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1858922862937362</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1213816957515306</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.867835932736583</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3.49479033039961</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0006187974226845197</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>24.12662465071531</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2.920733322025143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.1539123846017105</v>
+      </c>
+      <c r="D3">
+        <v>0.0791886311880603</v>
+      </c>
+      <c r="E3">
+        <v>1.521443103882618</v>
+      </c>
+      <c r="F3">
+        <v>2.690426850696198</v>
+      </c>
+      <c r="G3">
+        <v>0.000647917412019857</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>20.39311701028811</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.224615722267103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.1359662745226018</v>
+      </c>
+      <c r="D4">
+        <v>0.05931769276549304</v>
+      </c>
+      <c r="E4">
+        <v>1.331993163506866</v>
+      </c>
+      <c r="F4">
+        <v>2.277533667006608</v>
+      </c>
+      <c r="G4">
+        <v>0.0006649813769389437</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>18.23485524139022</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.870283905304888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.1289632716222116</v>
+      </c>
+      <c r="D5">
+        <v>0.05231530624231695</v>
+      </c>
+      <c r="E5">
+        <v>1.258942893664297</v>
+      </c>
+      <c r="F5">
+        <v>2.12418742064439</v>
+      </c>
+      <c r="G5">
+        <v>0.0006718094380650356</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>17.37974041363566</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.739330474282966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1278165582215394</v>
+      </c>
+      <c r="D6">
+        <v>0.05120931854316169</v>
+      </c>
+      <c r="E6">
+        <v>1.247026281630809</v>
+      </c>
+      <c r="F6">
+        <v>2.099502503035083</v>
+      </c>
+      <c r="G6">
+        <v>0.0006729374407094511</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>17.2390090545253</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.718286694086089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.135870695610194</v>
+      </c>
+      <c r="D7">
+        <v>0.05921926287817669</v>
+      </c>
+      <c r="E7">
+        <v>1.330992929523447</v>
+      </c>
+      <c r="F7">
+        <v>2.275410955209438</v>
+      </c>
+      <c r="G7">
+        <v>0.0006650738871633489</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>18.22323408188333</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.868468600781171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.1744302221040499</v>
+      </c>
+      <c r="D8">
+        <v>0.1052639428077669</v>
+      </c>
+      <c r="E8">
+        <v>1.742304693282023</v>
+      </c>
+      <c r="F8">
+        <v>3.196576008114818</v>
+      </c>
+      <c r="G8">
+        <v>0.0006290662388303189</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>22.80462190058654</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2.661863270344952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.2732830496455847</v>
+      </c>
+      <c r="D9">
+        <v>0.2815625418584702</v>
+      </c>
+      <c r="E9">
+        <v>2.888405823332448</v>
+      </c>
+      <c r="F9">
+        <v>6.12603102713706</v>
+      </c>
+      <c r="G9">
+        <v>0.0005450764318126744</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>33.63625869375301</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>5.233750474893668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D10">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E10">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F10">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G10">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D11">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E11">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F11">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G11">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D12">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E12">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F12">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G12">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D13">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E13">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F13">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G13">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D14">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E14">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F14">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G14">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D15">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E15">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F15">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G15">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D16">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E16">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F16">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G16">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D17">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E17">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F17">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G17">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D18">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E18">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F18">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G18">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D19">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E19">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F19">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G19">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D20">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E20">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F20">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G20">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D21">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E21">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F21">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G21">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D22">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E22">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F22">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G22">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D23">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E23">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F23">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G23">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D24">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E24">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F24">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G24">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>10.93152295032939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.4274555272316292</v>
+      </c>
+      <c r="D25">
+        <v>0.7542011776038606</v>
+      </c>
+      <c r="E25">
+        <v>5.225237831430675</v>
+      </c>
+      <c r="F25">
+        <v>12.45767073674051</v>
+      </c>
+      <c r="G25">
+        <v>0.0004258266280458155</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>47.85703823952957</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.93152295032939</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1858922862937362</v>
+        <v>0.07424167357771694</v>
       </c>
       <c r="D2">
-        <v>0.1213816957515306</v>
+        <v>0.07376881923872247</v>
       </c>
       <c r="E2">
-        <v>1.867835932736583</v>
+        <v>10.36858494391572</v>
       </c>
       <c r="F2">
-        <v>3.49479033039961</v>
+        <v>0.3880230455334583</v>
       </c>
       <c r="G2">
-        <v>0.0006187974226845197</v>
+        <v>0.3835260361770736</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1188621106059244</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2764228909326718</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.12662465071531</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>38.84330988828503</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.920733322025143</v>
+        <v>1.019759521477212</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1539123846017105</v>
+        <v>0.06446915193515679</v>
       </c>
       <c r="D3">
-        <v>0.0791886311880603</v>
+        <v>0.06292225031006637</v>
       </c>
       <c r="E3">
-        <v>1.521443103882618</v>
+        <v>8.372458798988021</v>
       </c>
       <c r="F3">
-        <v>2.690426850696198</v>
+        <v>0.2964349782470279</v>
       </c>
       <c r="G3">
-        <v>0.000647917412019857</v>
+        <v>0.2786434860884626</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.08980437160115429</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2082639140381879</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>20.39311701028811</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>31.97895299529972</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.224615722267103</v>
+        <v>0.7355059978028891</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1359662745226018</v>
+        <v>0.05855574320269596</v>
       </c>
       <c r="D4">
-        <v>0.05931769276549304</v>
+        <v>0.0566711968884519</v>
       </c>
       <c r="E4">
-        <v>1.331993163506866</v>
+        <v>7.32688863644421</v>
       </c>
       <c r="F4">
-        <v>2.277533667006608</v>
+        <v>0.2509266381525492</v>
       </c>
       <c r="G4">
-        <v>0.0006649813769389437</v>
+        <v>0.2274620095635953</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0773807980732002</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.174767364596164</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.23485524139022</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>28.2645560784544</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.870283905304888</v>
+        <v>0.6003734402704453</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1289632716222116</v>
+        <v>0.05615749458532804</v>
       </c>
       <c r="D5">
-        <v>0.05231530624231695</v>
+        <v>0.05418496829228303</v>
       </c>
       <c r="E5">
-        <v>1.258942893664297</v>
+        <v>6.929106245859117</v>
       </c>
       <c r="F5">
-        <v>2.12418742064439</v>
+        <v>0.2342483720380244</v>
       </c>
       <c r="G5">
-        <v>0.0006718094380650356</v>
+        <v>0.2088649102301829</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.07327420378647531</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1625667746660753</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.37974041363566</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>26.8304464430596</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.739330474282966</v>
+        <v>0.5521029792654417</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1278165582215394</v>
+        <v>0.05575976643520875</v>
       </c>
       <c r="D6">
-        <v>0.05120931854316169</v>
+        <v>0.05377503435158815</v>
       </c>
       <c r="E6">
-        <v>1.247026281630809</v>
+        <v>6.864438977818736</v>
       </c>
       <c r="F6">
-        <v>2.099502503035083</v>
+        <v>0.231575030187841</v>
       </c>
       <c r="G6">
-        <v>0.0006729374407094511</v>
+        <v>0.2058921666371276</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.07264189737686877</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.160615376788364</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.2390090545253</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>26.59621947989831</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.718286694086089</v>
+        <v>0.5444361398006663</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.135870695610194</v>
+        <v>0.05852336234006117</v>
       </c>
       <c r="D7">
-        <v>0.05921926287817669</v>
+        <v>0.05663745697538758</v>
       </c>
       <c r="E7">
-        <v>1.330992929523447</v>
+        <v>7.321424939770736</v>
       </c>
       <c r="F7">
-        <v>2.275410955209438</v>
+        <v>0.2506949417659641</v>
       </c>
       <c r="G7">
-        <v>0.0006650738871633489</v>
+        <v>0.2272030591156309</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.07732193071102955</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1745975730713987</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.22323408188333</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>28.24493592146388</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.868468600781171</v>
+        <v>0.5996978740469245</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1744302221040499</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D8">
-        <v>0.1052639428077669</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E8">
-        <v>1.742304693282023</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F8">
-        <v>3.196576008114818</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G8">
-        <v>0.0006290662388303189</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.80462190058654</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.661863270344952</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2732830496455847</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D9">
-        <v>0.2815625418584702</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E9">
-        <v>2.888405823332448</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F9">
-        <v>6.12603102713706</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G9">
-        <v>0.0005450764318126744</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>33.63625869375301</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.233750474893668</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D10">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E10">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F10">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G10">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D11">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E11">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F11">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G11">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D12">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E12">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F12">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G12">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D13">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E13">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F13">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G13">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D14">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E14">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F14">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G14">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D15">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E15">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F15">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G15">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D16">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E16">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F16">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G16">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D17">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E17">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F17">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G17">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D18">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E18">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F18">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G18">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D19">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E19">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F19">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G19">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D20">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E20">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F20">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G20">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D21">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E21">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F21">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G21">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D22">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E22">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F22">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G22">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D23">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E23">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F23">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G23">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D24">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E24">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F24">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G24">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4274555272316292</v>
+        <v>0.07084522392671033</v>
       </c>
       <c r="D25">
-        <v>0.7542011776038606</v>
+        <v>0.06990857804592565</v>
       </c>
       <c r="E25">
-        <v>5.225237831430675</v>
+        <v>9.628566402517379</v>
       </c>
       <c r="F25">
-        <v>12.45767073674051</v>
+        <v>0.3535353346152732</v>
       </c>
       <c r="G25">
-        <v>0.0004258266280458155</v>
+        <v>0.3437420071977186</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.1073850740603817</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>47.85703823952957</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.93152295032939</v>
+        <v>0.9110093455123689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07424167357771694</v>
+        <v>0.0259985220088339</v>
       </c>
       <c r="D2">
-        <v>0.07376881923872247</v>
+        <v>0.02370252457615862</v>
       </c>
       <c r="E2">
-        <v>10.36858494391572</v>
+        <v>2.610317677428952</v>
       </c>
       <c r="F2">
-        <v>0.3880230455334583</v>
+        <v>0.2073471222403143</v>
       </c>
       <c r="G2">
-        <v>0.3835260361770736</v>
+        <v>0.09184754780432058</v>
       </c>
       <c r="H2">
-        <v>0.1188621106059244</v>
+        <v>0.2387076879951664</v>
       </c>
       <c r="I2">
-        <v>0.2764228909326718</v>
+        <v>0.1444412836853388</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.84330988828503</v>
+        <v>10.73723423822503</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.019759521477212</v>
+        <v>0.5480276828193098</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06446915193515679</v>
+        <v>0.02290818794315896</v>
       </c>
       <c r="D3">
-        <v>0.06292225031006637</v>
+        <v>0.02072920476602746</v>
       </c>
       <c r="E3">
-        <v>8.372458798988021</v>
+        <v>2.273873653202685</v>
       </c>
       <c r="F3">
-        <v>0.2964349782470279</v>
+        <v>0.2094294264737115</v>
       </c>
       <c r="G3">
-        <v>0.2786434860884626</v>
+        <v>0.09279224558296306</v>
       </c>
       <c r="H3">
-        <v>0.08980437160115429</v>
+        <v>0.2472243309196216</v>
       </c>
       <c r="I3">
-        <v>0.2082639140381879</v>
+        <v>0.1467012107897148</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>31.97895299529972</v>
+        <v>9.377885926079102</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7355059978028891</v>
+        <v>0.5674014379640084</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05855574320269596</v>
+        <v>0.02100197363344591</v>
       </c>
       <c r="D4">
-        <v>0.0566711968884519</v>
+        <v>0.01889398304664525</v>
       </c>
       <c r="E4">
-        <v>7.32688863644421</v>
+        <v>2.067786694163914</v>
       </c>
       <c r="F4">
-        <v>0.2509266381525492</v>
+        <v>0.2113172490311257</v>
       </c>
       <c r="G4">
-        <v>0.2274620095635953</v>
+        <v>0.09390085873008758</v>
       </c>
       <c r="H4">
-        <v>0.0773807980732002</v>
+        <v>0.2529030733522788</v>
       </c>
       <c r="I4">
-        <v>0.174767364596164</v>
+        <v>0.1485473587455495</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.2645560784544</v>
+        <v>8.541643043153556</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6003734402704453</v>
+        <v>0.5813463997372708</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05615749458532804</v>
+        <v>0.02022307162040704</v>
       </c>
       <c r="D5">
-        <v>0.05418496829228303</v>
+        <v>0.018143751160558</v>
       </c>
       <c r="E5">
-        <v>6.929106245859117</v>
+        <v>1.983901584865976</v>
       </c>
       <c r="F5">
-        <v>0.2342483720380244</v>
+        <v>0.2122357318661727</v>
       </c>
       <c r="G5">
-        <v>0.2088649102301829</v>
+        <v>0.09448073276683999</v>
       </c>
       <c r="H5">
-        <v>0.07327420378647531</v>
+        <v>0.2553282181036067</v>
       </c>
       <c r="I5">
-        <v>0.1625667746660753</v>
+        <v>0.1494118680006977</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.8304464430596</v>
+        <v>8.200391630924969</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5521029792654417</v>
+        <v>0.5875299969409866</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05575976643520875</v>
+        <v>0.02009361126150111</v>
       </c>
       <c r="D6">
-        <v>0.05377503435158815</v>
+        <v>0.01801903452156495</v>
       </c>
       <c r="E6">
-        <v>6.864438977818736</v>
+        <v>1.96997765980305</v>
       </c>
       <c r="F6">
-        <v>0.231575030187841</v>
+        <v>0.2123971385254322</v>
       </c>
       <c r="G6">
-        <v>0.2058921666371276</v>
+        <v>0.09458461854526945</v>
       </c>
       <c r="H6">
-        <v>0.07264189737686877</v>
+        <v>0.2557375577692937</v>
       </c>
       <c r="I6">
-        <v>0.160615376788364</v>
+        <v>0.1495621047293376</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.59621947989831</v>
+        <v>8.143696359199225</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5444361398006663</v>
+        <v>0.5885866145087135</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05852336234006117</v>
+        <v>0.02099147748216978</v>
       </c>
       <c r="D7">
-        <v>0.05663745697538758</v>
+        <v>0.01888387465977104</v>
       </c>
       <c r="E7">
-        <v>7.321424939770736</v>
+        <v>2.066655030645848</v>
       </c>
       <c r="F7">
-        <v>0.2506949417659641</v>
+        <v>0.2113290372707155</v>
       </c>
       <c r="G7">
-        <v>0.2272030591156309</v>
+        <v>0.09390816671511004</v>
       </c>
       <c r="H7">
-        <v>0.07732193071102955</v>
+        <v>0.2529353328685744</v>
       </c>
       <c r="I7">
-        <v>0.1745975730713987</v>
+        <v>0.1485585676551118</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.24493592146388</v>
+        <v>8.537042825085166</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5996978740469245</v>
+        <v>0.5814277846186258</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07084522392671033</v>
+        <v>0.02493484135088408</v>
       </c>
       <c r="D8">
-        <v>0.06990857804592565</v>
+        <v>0.02267933938777844</v>
       </c>
       <c r="E8">
-        <v>9.628566402517379</v>
+        <v>2.494193039416473</v>
       </c>
       <c r="F8">
-        <v>0.3535353346152732</v>
+        <v>0.2079362038840316</v>
       </c>
       <c r="G8">
-        <v>0.3437420071977186</v>
+        <v>0.09206065931312679</v>
       </c>
       <c r="H8">
-        <v>0.1073850740603817</v>
+        <v>0.2415497160192501</v>
       </c>
       <c r="I8">
-        <v>0.2506530813351411</v>
+        <v>0.1451234478444832</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.33381454276065</v>
+        <v>10.26881511767897</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9110093455123689</v>
+        <v>0.5542736574510059</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07084522392671033</v>
+        <v>0.032594964002854</v>
       </c>
       <c r="D9">
-        <v>0.06990857804592565</v>
+        <v>0.03004489036957381</v>
       </c>
       <c r="E9">
-        <v>9.628566402517379</v>
+        <v>3.337856558203612</v>
       </c>
       <c r="F9">
-        <v>0.3535353346152732</v>
+        <v>0.2063010013012345</v>
       </c>
       <c r="G9">
-        <v>0.3437420071977186</v>
+        <v>0.0928514382002561</v>
       </c>
       <c r="H9">
-        <v>0.1073850740603817</v>
+        <v>0.2228802192032333</v>
       </c>
       <c r="I9">
-        <v>0.2506530813351411</v>
+        <v>0.1421676255902149</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.33381454276065</v>
+        <v>13.65605169794696</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9110093455123689</v>
+        <v>0.5179430773937526</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07084522392671033</v>
+        <v>0.03817466801056923</v>
       </c>
       <c r="D10">
-        <v>0.06990857804592565</v>
+        <v>0.03540883395066885</v>
       </c>
       <c r="E10">
-        <v>9.628566402517379</v>
+        <v>3.963061294130966</v>
       </c>
       <c r="F10">
-        <v>0.3535353346152732</v>
+        <v>0.2084172051241424</v>
       </c>
       <c r="G10">
-        <v>0.3437420071977186</v>
+        <v>0.09643301549894545</v>
       </c>
       <c r="H10">
-        <v>0.1073850740603817</v>
+        <v>0.2115205661281365</v>
       </c>
       <c r="I10">
-        <v>0.2506530813351411</v>
+        <v>0.1425004041224511</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>36.33381454276065</v>
+        <v>16.14560305806549</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9110093455123689</v>
+        <v>0.5024888564499435</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07084522392671033</v>
+        <v>0.04070188383830953</v>
       </c>
       <c r="D11">
-        <v>0.06990857804592565</v>
+        <v>0.03783889709913524</v>
       </c>
       <c r="E11">
-        <v>9.628566402517379</v>
+        <v>4.249185403936622</v>
       </c>
       <c r="F11">
-        <v>0.3535353346152732</v>
+        <v>0.2101579567766265</v>
       </c>
       <c r="G11">
-        <v>0.3437420071977186</v>
+        <v>0.09878337973663065</v>
       </c>
       <c r="H11">
-        <v>0.1073850740603817</v>
+        <v>0.206892742323646</v>
       </c>
       <c r="I11">
-        <v>0.2506530813351411</v>
+        <v>0.143240205404858</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>36.33381454276065</v>
+        <v>17.27995216389007</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9110093455123689</v>
+        <v>0.4981050916419463</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07084522392671033</v>
+        <v>0.04165722912055969</v>
       </c>
       <c r="D12">
-        <v>0.06990857804592565</v>
+        <v>0.0387576772922813</v>
       </c>
       <c r="E12">
-        <v>9.628566402517379</v>
+        <v>4.3578279018069</v>
       </c>
       <c r="F12">
-        <v>0.3535353346152732</v>
+        <v>0.2109339253391909</v>
       </c>
       <c r="G12">
-        <v>0.3437420071977186</v>
+        <v>0.09978303283034506</v>
       </c>
       <c r="H12">
-        <v>0.1073850740603817</v>
+        <v>0.2052203371492354</v>
       </c>
       <c r="I12">
-        <v>0.2506530813351411</v>
+        <v>0.1436087631029039</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.33381454276065</v>
+        <v>17.70990585949443</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9110093455123689</v>
+        <v>0.4968433022546037</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07084522392671033</v>
+        <v>0.04145155318222749</v>
       </c>
       <c r="D13">
-        <v>0.06990857804592565</v>
+        <v>0.03855986494727404</v>
       </c>
       <c r="E13">
-        <v>9.628566402517379</v>
+        <v>4.334415951801134</v>
       </c>
       <c r="F13">
-        <v>0.3535353346152732</v>
+        <v>0.210761533037207</v>
       </c>
       <c r="G13">
-        <v>0.3437420071977186</v>
+        <v>0.09956276763634975</v>
       </c>
       <c r="H13">
-        <v>0.1073850740603817</v>
+        <v>0.2055769196510084</v>
       </c>
       <c r="I13">
-        <v>0.2506530813351411</v>
+        <v>0.1435253937584733</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>36.33381454276065</v>
+        <v>17.61728753847348</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9110093455123689</v>
+        <v>0.4970970511049586</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07084522392671033</v>
+        <v>0.04078051426184004</v>
       </c>
       <c r="D14">
-        <v>0.06990857804592565</v>
+        <v>0.03791451430114989</v>
       </c>
       <c r="E14">
-        <v>9.628566402517379</v>
+        <v>4.258117322170165</v>
       </c>
       <c r="F14">
-        <v>0.3535353346152732</v>
+        <v>0.2102194270677771</v>
       </c>
       <c r="G14">
-        <v>0.3437420071977186</v>
+        <v>0.09886339014264678</v>
       </c>
       <c r="H14">
-        <v>0.1073850740603817</v>
+        <v>0.2067535339812068</v>
       </c>
       <c r="I14">
-        <v>0.2506530813351411</v>
+        <v>0.143268732803449</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>36.33381454276065</v>
+        <v>17.31531586811218</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9110093455123689</v>
+        <v>0.4979931985994028</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07084522392671033</v>
+        <v>0.04036926577546751</v>
       </c>
       <c r="D15">
-        <v>0.06990857804592565</v>
+        <v>0.03751903239489707</v>
       </c>
       <c r="E15">
-        <v>9.628566402517379</v>
+        <v>4.211421892860585</v>
       </c>
       <c r="F15">
-        <v>0.3535353346152732</v>
+        <v>0.2099027281106487</v>
       </c>
       <c r="G15">
-        <v>0.3437420071977186</v>
+        <v>0.09844945656740123</v>
       </c>
       <c r="H15">
-        <v>0.1073850740603817</v>
+        <v>0.2074847428234463</v>
       </c>
       <c r="I15">
-        <v>0.2506530813351411</v>
+        <v>0.1431231490139595</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>36.33381454276065</v>
+        <v>17.13040587563086</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9110093455123689</v>
+        <v>0.4985945132945062</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07084522392671033</v>
+        <v>0.03800928050630148</v>
       </c>
       <c r="D16">
-        <v>0.06990857804592565</v>
+        <v>0.03524982244211117</v>
       </c>
       <c r="E16">
-        <v>9.628566402517379</v>
+        <v>3.944400838201318</v>
       </c>
       <c r="F16">
-        <v>0.3535353346152732</v>
+        <v>0.2083195150519188</v>
       </c>
       <c r="G16">
-        <v>0.3437420071977186</v>
+        <v>0.0962944261520704</v>
       </c>
       <c r="H16">
-        <v>0.1073850740603817</v>
+        <v>0.2118340729979238</v>
       </c>
       <c r="I16">
-        <v>0.2506530813351411</v>
+        <v>0.1424642187642959</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>36.33381454276065</v>
+        <v>16.0715190177819</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9110093455123689</v>
+        <v>0.5028300983642993</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07084522392671033</v>
+        <v>0.03655863079694655</v>
       </c>
       <c r="D17">
-        <v>0.06990857804592565</v>
+        <v>0.03385517139284389</v>
       </c>
       <c r="E17">
-        <v>9.628566402517379</v>
+        <v>3.781063447752217</v>
       </c>
       <c r="F17">
-        <v>0.3535353346152732</v>
+        <v>0.2075509875231489</v>
       </c>
       <c r="G17">
-        <v>0.3437420071977186</v>
+        <v>0.0951612295483244</v>
       </c>
       <c r="H17">
-        <v>0.1073850740603817</v>
+        <v>0.2146421988306813</v>
       </c>
       <c r="I17">
-        <v>0.2506530813351411</v>
+        <v>0.142213359492807</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.33381454276065</v>
+        <v>15.42249011217103</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9110093455123689</v>
+        <v>0.5061187200160759</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07084522392671033</v>
+        <v>0.03572322221403113</v>
       </c>
       <c r="D18">
-        <v>0.06990857804592565</v>
+        <v>0.03305206039452457</v>
       </c>
       <c r="E18">
-        <v>9.628566402517379</v>
+        <v>3.68727450800975</v>
       </c>
       <c r="F18">
-        <v>0.3535353346152732</v>
+        <v>0.2071818858973415</v>
       </c>
       <c r="G18">
-        <v>0.3437420071977186</v>
+        <v>0.09457695076803674</v>
       </c>
       <c r="H18">
-        <v>0.1073850740603817</v>
+        <v>0.2163080115822495</v>
       </c>
       <c r="I18">
-        <v>0.2506530813351411</v>
+        <v>0.1421242227293718</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.33381454276065</v>
+        <v>15.04935014427383</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9110093455123689</v>
+        <v>0.5082582524339898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07084522392671033</v>
+        <v>0.03544019203890514</v>
       </c>
       <c r="D19">
-        <v>0.06990857804592565</v>
+        <v>0.03277997849943404</v>
       </c>
       <c r="E19">
-        <v>9.628566402517379</v>
+        <v>3.655545030664939</v>
       </c>
       <c r="F19">
-        <v>0.3535353346152732</v>
+        <v>0.2070692943118004</v>
       </c>
       <c r="G19">
-        <v>0.3437420071977186</v>
+        <v>0.09439054075308206</v>
       </c>
       <c r="H19">
-        <v>0.1073850740603817</v>
+        <v>0.2168806537281043</v>
       </c>
       <c r="I19">
-        <v>0.2506530813351411</v>
+        <v>0.1421034009708251</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.33381454276065</v>
+        <v>14.92303564542783</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9110093455123689</v>
+        <v>0.5090247264080432</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07084522392671033</v>
+        <v>0.03671316240904332</v>
       </c>
       <c r="D20">
-        <v>0.06990857804592565</v>
+        <v>0.03400373211427166</v>
       </c>
       <c r="E20">
-        <v>9.628566402517379</v>
+        <v>3.798434271034694</v>
       </c>
       <c r="F20">
-        <v>0.3535353346152732</v>
+        <v>0.2076252150937066</v>
       </c>
       <c r="G20">
-        <v>0.3437420071977186</v>
+        <v>0.09527483133349079</v>
       </c>
       <c r="H20">
-        <v>0.1073850740603817</v>
+        <v>0.2143380092122626</v>
       </c>
       <c r="I20">
-        <v>0.2506530813351411</v>
+        <v>0.142234328857576</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>36.33381454276065</v>
+        <v>15.49156239960314</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9110093455123689</v>
+        <v>0.5057428467871858</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07084522392671033</v>
+        <v>0.04097766016256799</v>
       </c>
       <c r="D21">
-        <v>0.06990857804592565</v>
+        <v>0.03810410815745513</v>
       </c>
       <c r="E21">
-        <v>9.628566402517379</v>
+        <v>4.280519719514018</v>
       </c>
       <c r="F21">
-        <v>0.3535353346152732</v>
+        <v>0.2103754474755277</v>
       </c>
       <c r="G21">
-        <v>0.3437420071977186</v>
+        <v>0.09906579091863676</v>
       </c>
       <c r="H21">
-        <v>0.1073850740603817</v>
+        <v>0.2064057414837279</v>
       </c>
       <c r="I21">
-        <v>0.2506530813351411</v>
+        <v>0.1433416900415878</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>36.33381454276065</v>
+        <v>17.40400025907445</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9110093455123689</v>
+        <v>0.4977190261681699</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07084522392671033</v>
+        <v>0.04375507095694786</v>
       </c>
       <c r="D22">
-        <v>0.06990857804592565</v>
+        <v>0.04077560755401066</v>
       </c>
       <c r="E22">
-        <v>9.628566402517379</v>
+        <v>4.597325968700716</v>
       </c>
       <c r="F22">
-        <v>0.3535353346152732</v>
+        <v>0.2128559721565253</v>
       </c>
       <c r="G22">
-        <v>0.3437420071977186</v>
+        <v>0.1021852579053757</v>
       </c>
       <c r="H22">
-        <v>0.1073850740603817</v>
+        <v>0.2016893295556201</v>
       </c>
       <c r="I22">
-        <v>0.2506530813351411</v>
+        <v>0.1445825916842693</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>36.33381454276065</v>
+        <v>18.65629434069143</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9110093455123689</v>
+        <v>0.4948049197846274</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07084522392671033</v>
+        <v>0.04227362312272476</v>
       </c>
       <c r="D23">
-        <v>0.06990857804592565</v>
+        <v>0.03935053424144996</v>
       </c>
       <c r="E23">
-        <v>9.628566402517379</v>
+        <v>4.428065137879116</v>
       </c>
       <c r="F23">
-        <v>0.3535353346152732</v>
+        <v>0.211467908539376</v>
       </c>
       <c r="G23">
-        <v>0.3437420071977186</v>
+        <v>0.1004595971672302</v>
       </c>
       <c r="H23">
-        <v>0.1073850740603817</v>
+        <v>0.2041629408861922</v>
       </c>
       <c r="I23">
-        <v>0.2506530813351411</v>
+        <v>0.1438716910348674</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>36.33381454276065</v>
+        <v>17.98765317611367</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9110093455123689</v>
+        <v>0.4961410460440163</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07084522392671033</v>
+        <v>0.03664330305595342</v>
       </c>
       <c r="D24">
-        <v>0.06990857804592565</v>
+        <v>0.03393657188512123</v>
       </c>
       <c r="E24">
-        <v>9.628566402517379</v>
+        <v>3.790580564312052</v>
       </c>
       <c r="F24">
-        <v>0.3535353346152732</v>
+        <v>0.2075914306242979</v>
       </c>
       <c r="G24">
-        <v>0.3437420071977186</v>
+        <v>0.09522326306558426</v>
       </c>
       <c r="H24">
-        <v>0.1073850740603817</v>
+        <v>0.2144753734731353</v>
       </c>
       <c r="I24">
-        <v>0.2506530813351411</v>
+        <v>0.1422246773143954</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.33381454276065</v>
+        <v>15.4603348429095</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9110093455123689</v>
+        <v>0.505912005262843</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07084522392671033</v>
+        <v>0.03053090453801133</v>
       </c>
       <c r="D25">
-        <v>0.06990857804592565</v>
+        <v>0.02806067395252398</v>
       </c>
       <c r="E25">
-        <v>9.628566402517379</v>
+        <v>3.108849405061079</v>
       </c>
       <c r="F25">
-        <v>0.3535353346152732</v>
+        <v>0.2061798213195871</v>
       </c>
       <c r="G25">
-        <v>0.3437420071977186</v>
+        <v>0.09213349231960422</v>
       </c>
       <c r="H25">
-        <v>0.1073850740603817</v>
+        <v>0.2275262822814383</v>
       </c>
       <c r="I25">
-        <v>0.2506530813351411</v>
+        <v>0.1425421912445408</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>36.33381454276065</v>
+        <v>12.74004103297898</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9110093455123689</v>
+        <v>0.5258662166592103</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0259985220088339</v>
+        <v>0.07424167357785905</v>
       </c>
       <c r="D2">
-        <v>0.02370252457615862</v>
+        <v>0.07376881923894985</v>
       </c>
       <c r="E2">
-        <v>2.610317677428952</v>
+        <v>10.36858494391575</v>
       </c>
       <c r="F2">
-        <v>0.2073471222403143</v>
+        <v>0.3880230455334441</v>
       </c>
       <c r="G2">
-        <v>0.09184754780432058</v>
+        <v>0.3835260361770665</v>
       </c>
       <c r="H2">
-        <v>0.2387076879951664</v>
+        <v>0.1188621106059173</v>
       </c>
       <c r="I2">
-        <v>0.1444412836853388</v>
+        <v>0.2764228909326896</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.73723423822503</v>
+        <v>38.84330988828509</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.5480276828193098</v>
+        <v>1.019759521477241</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02290818794315896</v>
+        <v>0.06446915193515679</v>
       </c>
       <c r="D3">
-        <v>0.02072920476602746</v>
+        <v>0.06292225030993137</v>
       </c>
       <c r="E3">
-        <v>2.273873653202685</v>
+        <v>8.372458798988077</v>
       </c>
       <c r="F3">
-        <v>0.2094294264737115</v>
+        <v>0.2964349782470279</v>
       </c>
       <c r="G3">
-        <v>0.09279224558296306</v>
+        <v>0.2786434860884555</v>
       </c>
       <c r="H3">
-        <v>0.2472243309196216</v>
+        <v>0.08980437160126087</v>
       </c>
       <c r="I3">
-        <v>0.1467012107897148</v>
+        <v>0.2082639140382057</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.377885926079102</v>
+        <v>31.97895299529966</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5674014379640084</v>
+        <v>0.7355059978029033</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02100197363344591</v>
+        <v>0.05855574320263912</v>
       </c>
       <c r="D4">
-        <v>0.01889398304664525</v>
+        <v>0.05667119688833822</v>
       </c>
       <c r="E4">
-        <v>2.067786694163914</v>
+        <v>7.326888636444238</v>
       </c>
       <c r="F4">
-        <v>0.2113172490311257</v>
+        <v>0.2509266381525421</v>
       </c>
       <c r="G4">
-        <v>0.09390085873008758</v>
+        <v>0.2274620095636379</v>
       </c>
       <c r="H4">
-        <v>0.2529030733522788</v>
+        <v>0.0773807980732002</v>
       </c>
       <c r="I4">
-        <v>0.1485473587455495</v>
+        <v>0.174767364596164</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.541643043153556</v>
+        <v>28.26455607845452</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5813463997372708</v>
+        <v>0.6003734402704026</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02022307162040704</v>
+        <v>0.05615749458548436</v>
       </c>
       <c r="D5">
-        <v>0.018143751160558</v>
+        <v>0.0541849682925033</v>
       </c>
       <c r="E5">
-        <v>1.983901584865976</v>
+        <v>6.929106245858975</v>
       </c>
       <c r="F5">
-        <v>0.2122357318661727</v>
+        <v>0.2342483720380386</v>
       </c>
       <c r="G5">
-        <v>0.09448073276683999</v>
+        <v>0.2088649102301829</v>
       </c>
       <c r="H5">
-        <v>0.2553282181036067</v>
+        <v>0.07327420378647531</v>
       </c>
       <c r="I5">
-        <v>0.1494118680006977</v>
+        <v>0.1625667746660788</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.200391630924969</v>
+        <v>26.83044644305954</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5875299969409866</v>
+        <v>0.5521029792654559</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02009361126150111</v>
+        <v>0.05575976643539349</v>
       </c>
       <c r="D6">
-        <v>0.01801903452156495</v>
+        <v>0.05377503435158815</v>
       </c>
       <c r="E6">
-        <v>1.96997765980305</v>
+        <v>6.864438977818764</v>
       </c>
       <c r="F6">
-        <v>0.2123971385254322</v>
+        <v>0.231575030187841</v>
       </c>
       <c r="G6">
-        <v>0.09458461854526945</v>
+        <v>0.2058921666371845</v>
       </c>
       <c r="H6">
-        <v>0.2557375577692937</v>
+        <v>0.07264189737686166</v>
       </c>
       <c r="I6">
-        <v>0.1495621047293376</v>
+        <v>0.1606153767883782</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.143696359199225</v>
+        <v>26.59621947989842</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5885866145087135</v>
+        <v>0.5444361398006379</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02099147748216978</v>
+        <v>0.05852336234000433</v>
       </c>
       <c r="D7">
-        <v>0.01888387465977104</v>
+        <v>0.05663745697552969</v>
       </c>
       <c r="E7">
-        <v>2.066655030645848</v>
+        <v>7.321424939770765</v>
       </c>
       <c r="F7">
-        <v>0.2113290372707155</v>
+        <v>0.2506949417659499</v>
       </c>
       <c r="G7">
-        <v>0.09390816671511004</v>
+        <v>0.2272030591156948</v>
       </c>
       <c r="H7">
-        <v>0.2529353328685744</v>
+        <v>0.07732193071115034</v>
       </c>
       <c r="I7">
-        <v>0.1485585676551118</v>
+        <v>0.1745975730713951</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.537042825085166</v>
+        <v>28.24493592146388</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5814277846186258</v>
+        <v>0.5996978740468535</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02493484135088408</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D8">
-        <v>0.02267933938777844</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E8">
-        <v>2.494193039416473</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F8">
-        <v>0.2079362038840316</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G8">
-        <v>0.09206065931312679</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H8">
-        <v>0.2415497160192501</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I8">
-        <v>0.1451234478444832</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.26881511767897</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.5542736574510059</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.032594964002854</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D9">
-        <v>0.03004489036957381</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E9">
-        <v>3.337856558203612</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F9">
-        <v>0.2063010013012345</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G9">
-        <v>0.0928514382002561</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H9">
-        <v>0.2228802192032333</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I9">
-        <v>0.1421676255902149</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.65605169794696</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5179430773937526</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03817466801056923</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D10">
-        <v>0.03540883395066885</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E10">
-        <v>3.963061294130966</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F10">
-        <v>0.2084172051241424</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G10">
-        <v>0.09643301549894545</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H10">
-        <v>0.2115205661281365</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I10">
-        <v>0.1425004041224511</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.14560305806549</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.5024888564499435</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.04070188383830953</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D11">
-        <v>0.03783889709913524</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E11">
-        <v>4.249185403936622</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F11">
-        <v>0.2101579567766265</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G11">
-        <v>0.09878337973663065</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H11">
-        <v>0.206892742323646</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I11">
-        <v>0.143240205404858</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.27995216389007</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.4981050916419463</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.04165722912055969</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D12">
-        <v>0.0387576772922813</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E12">
-        <v>4.3578279018069</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F12">
-        <v>0.2109339253391909</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G12">
-        <v>0.09978303283034506</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H12">
-        <v>0.2052203371492354</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I12">
-        <v>0.1436087631029039</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.70990585949443</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.4968433022546037</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.04145155318222749</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D13">
-        <v>0.03855986494727404</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E13">
-        <v>4.334415951801134</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F13">
-        <v>0.210761533037207</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G13">
-        <v>0.09956276763634975</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H13">
-        <v>0.2055769196510084</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I13">
-        <v>0.1435253937584733</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.61728753847348</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4970970511049586</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.04078051426184004</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D14">
-        <v>0.03791451430114989</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E14">
-        <v>4.258117322170165</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F14">
-        <v>0.2102194270677771</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G14">
-        <v>0.09886339014264678</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H14">
-        <v>0.2067535339812068</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I14">
-        <v>0.143268732803449</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.31531586811218</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4979931985994028</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.04036926577546751</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D15">
-        <v>0.03751903239489707</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E15">
-        <v>4.211421892860585</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F15">
-        <v>0.2099027281106487</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G15">
-        <v>0.09844945656740123</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H15">
-        <v>0.2074847428234463</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I15">
-        <v>0.1431231490139595</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.13040587563086</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4985945132945062</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03800928050630148</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D16">
-        <v>0.03524982244211117</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E16">
-        <v>3.944400838201318</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F16">
-        <v>0.2083195150519188</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G16">
-        <v>0.0962944261520704</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H16">
-        <v>0.2118340729979238</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I16">
-        <v>0.1424642187642959</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.0715190177819</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5028300983642993</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.03655863079694655</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D17">
-        <v>0.03385517139284389</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E17">
-        <v>3.781063447752217</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F17">
-        <v>0.2075509875231489</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G17">
-        <v>0.0951612295483244</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H17">
-        <v>0.2146421988306813</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I17">
-        <v>0.142213359492807</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.42249011217103</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.5061187200160759</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03572322221403113</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D18">
-        <v>0.03305206039452457</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E18">
-        <v>3.68727450800975</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F18">
-        <v>0.2071818858973415</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G18">
-        <v>0.09457695076803674</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H18">
-        <v>0.2163080115822495</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I18">
-        <v>0.1421242227293718</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.04935014427383</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5082582524339898</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03544019203890514</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D19">
-        <v>0.03277997849943404</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E19">
-        <v>3.655545030664939</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F19">
-        <v>0.2070692943118004</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G19">
-        <v>0.09439054075308206</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H19">
-        <v>0.2168806537281043</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I19">
-        <v>0.1421034009708251</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.92303564542783</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5090247264080432</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03671316240904332</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D20">
-        <v>0.03400373211427166</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E20">
-        <v>3.798434271034694</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F20">
-        <v>0.2076252150937066</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G20">
-        <v>0.09527483133349079</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H20">
-        <v>0.2143380092122626</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I20">
-        <v>0.142234328857576</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.49156239960314</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.5057428467871858</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.04097766016256799</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D21">
-        <v>0.03810410815745513</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E21">
-        <v>4.280519719514018</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F21">
-        <v>0.2103754474755277</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G21">
-        <v>0.09906579091863676</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H21">
-        <v>0.2064057414837279</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I21">
-        <v>0.1433416900415878</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.40400025907445</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.4977190261681699</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.04375507095694786</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D22">
-        <v>0.04077560755401066</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E22">
-        <v>4.597325968700716</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F22">
-        <v>0.2128559721565253</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G22">
-        <v>0.1021852579053757</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H22">
-        <v>0.2016893295556201</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I22">
-        <v>0.1445825916842693</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.65629434069143</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.4948049197846274</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.04227362312272476</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D23">
-        <v>0.03935053424144996</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E23">
-        <v>4.428065137879116</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F23">
-        <v>0.211467908539376</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G23">
-        <v>0.1004595971672302</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H23">
-        <v>0.2041629408861922</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I23">
-        <v>0.1438716910348674</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.98765317611367</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.4961410460440163</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03664330305595342</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D24">
-        <v>0.03393657188512123</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E24">
-        <v>3.790580564312052</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F24">
-        <v>0.2075914306242979</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G24">
-        <v>0.09522326306558426</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H24">
-        <v>0.2144753734731353</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I24">
-        <v>0.1422246773143954</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.4603348429095</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.505912005262843</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03053090453801133</v>
+        <v>0.0708452239269235</v>
       </c>
       <c r="D25">
-        <v>0.02806067395252398</v>
+        <v>0.06990857804593276</v>
       </c>
       <c r="E25">
-        <v>3.108849405061079</v>
+        <v>9.628566402517322</v>
       </c>
       <c r="F25">
-        <v>0.2061798213195871</v>
+        <v>0.3535353346152661</v>
       </c>
       <c r="G25">
-        <v>0.09213349231960422</v>
+        <v>0.3437420071977115</v>
       </c>
       <c r="H25">
-        <v>0.2275262822814383</v>
+        <v>0.1073850740604883</v>
       </c>
       <c r="I25">
-        <v>0.1425421912445408</v>
+        <v>0.2506530813351411</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.74004103297898</v>
+        <v>36.33381454276065</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5258662166592103</v>
+        <v>0.9110093455123405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07424167357785905</v>
+        <v>0.08431246490586375</v>
       </c>
       <c r="D2">
-        <v>0.07376881923894985</v>
+        <v>0.07985629656519677</v>
       </c>
       <c r="E2">
-        <v>10.36858494391575</v>
+        <v>1.346427753635368</v>
       </c>
       <c r="F2">
-        <v>0.3880230455334441</v>
+        <v>0.2897093931953023</v>
       </c>
       <c r="G2">
-        <v>0.3835260361770665</v>
+        <v>0.1866179034438957</v>
       </c>
       <c r="H2">
-        <v>0.1188621106059173</v>
+        <v>0.01034640933281341</v>
       </c>
       <c r="I2">
-        <v>0.2764228909326896</v>
+        <v>0.01528299115559673</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1869903262880186</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.229009816758392</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>38.84330988828509</v>
+        <v>5.260467998764341</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.019759521477241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.7370097045273099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06446915193515679</v>
+        <v>0.07412142512477971</v>
       </c>
       <c r="D3">
-        <v>0.06292225030993137</v>
+        <v>0.07045005084525968</v>
       </c>
       <c r="E3">
-        <v>8.372458798988077</v>
+        <v>1.174781961478985</v>
       </c>
       <c r="F3">
-        <v>0.2964349782470279</v>
+        <v>0.2736887166940249</v>
       </c>
       <c r="G3">
-        <v>0.2786434860884555</v>
+        <v>0.178863208499763</v>
       </c>
       <c r="H3">
-        <v>0.08980437160126087</v>
+        <v>0.007477009723072636</v>
       </c>
       <c r="I3">
-        <v>0.2082639140382057</v>
+        <v>0.01198964124805801</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1885830331531508</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2200920368063422</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>31.97895299529966</v>
+        <v>4.592993212388194</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7355059978029033</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.7235871820609248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05855574320263912</v>
+        <v>0.06771149494144169</v>
       </c>
       <c r="D4">
-        <v>0.05667119688833822</v>
+        <v>0.06467864898866083</v>
       </c>
       <c r="E4">
-        <v>7.326888636444238</v>
+        <v>1.069575271819588</v>
       </c>
       <c r="F4">
-        <v>0.2509266381525421</v>
+        <v>0.2644005327657979</v>
       </c>
       <c r="G4">
-        <v>0.2274620095636379</v>
+        <v>0.1745809773601223</v>
       </c>
       <c r="H4">
-        <v>0.0773807980732002</v>
+        <v>0.005895760652869009</v>
       </c>
       <c r="I4">
-        <v>0.174767364596164</v>
+        <v>0.01013119104801463</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1898778437061281</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2148687578981843</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.26455607845452</v>
+        <v>4.182477620036025</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6003734402704026</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.71701753704059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05615749458548436</v>
+        <v>0.06467870707908929</v>
       </c>
       <c r="D5">
-        <v>0.0541849682925033</v>
+        <v>0.06239732359949102</v>
       </c>
       <c r="E5">
-        <v>6.929106245858975</v>
+        <v>1.026715234543573</v>
       </c>
       <c r="F5">
-        <v>0.2342483720380386</v>
+        <v>0.2604070403527601</v>
       </c>
       <c r="G5">
-        <v>0.2088649102301829</v>
+        <v>0.1726370366445167</v>
       </c>
       <c r="H5">
-        <v>0.07327420378647531</v>
+        <v>0.005291687669507494</v>
       </c>
       <c r="I5">
-        <v>0.1625667746660788</v>
+        <v>0.009455685698532612</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1903188903721613</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2123793394486562</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>26.83044644305954</v>
+        <v>4.014954282591418</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5521029792654559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.7137350813464849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05575976643539349</v>
+        <v>0.06370657743482155</v>
       </c>
       <c r="D6">
-        <v>0.05377503435158815</v>
+        <v>0.06210435143611903</v>
       </c>
       <c r="E6">
-        <v>6.864438977818764</v>
+        <v>1.019579404628743</v>
       </c>
       <c r="F6">
-        <v>0.231575030187841</v>
+        <v>0.2593390055012748</v>
       </c>
       <c r="G6">
-        <v>0.2058921666371845</v>
+        <v>0.1719409455405412</v>
       </c>
       <c r="H6">
-        <v>0.07264189737686166</v>
+        <v>0.005192049470727933</v>
       </c>
       <c r="I6">
-        <v>0.1606153767883782</v>
+        <v>0.009407170920066044</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1901980619208885</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2114566363420636</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>26.59621947989842</v>
+        <v>3.987077586542625</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.5444361398006379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.7119917145811598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05852336234000433</v>
+        <v>0.06638999645862498</v>
       </c>
       <c r="D7">
-        <v>0.05663745697552969</v>
+        <v>0.0648829710990384</v>
       </c>
       <c r="E7">
-        <v>7.321424939770765</v>
+        <v>1.068941445559915</v>
       </c>
       <c r="F7">
-        <v>0.2506949417659499</v>
+        <v>0.2632185402072196</v>
       </c>
       <c r="G7">
-        <v>0.2272030591156948</v>
+        <v>0.1735157916608898</v>
       </c>
       <c r="H7">
-        <v>0.07732193071115034</v>
+        <v>0.005882390064117171</v>
       </c>
       <c r="I7">
-        <v>0.1745975730713951</v>
+        <v>0.01027516305941578</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1893416828503973</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2134318745464334</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>28.24493592146388</v>
+        <v>4.180089448549552</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5996978740468535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.7136343624005264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0708452239269235</v>
+        <v>0.07911539221782959</v>
       </c>
       <c r="D8">
-        <v>0.06990857804593276</v>
+        <v>0.07692627506853</v>
       </c>
       <c r="E8">
-        <v>9.628566402517322</v>
+        <v>1.287119239193004</v>
       </c>
       <c r="F8">
-        <v>0.3535353346152661</v>
+        <v>0.2825704005858896</v>
       </c>
       <c r="G8">
-        <v>0.3437420071977115</v>
+        <v>0.1824625673706848</v>
       </c>
       <c r="H8">
-        <v>0.1073850740604883</v>
+        <v>0.009309324420671714</v>
       </c>
       <c r="I8">
-        <v>0.2506530813351411</v>
+        <v>0.01428781213651753</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1867572068107606</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2240166381885906</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>36.33381454276065</v>
+        <v>5.030270890880161</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.7276030239830504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0708452239269235</v>
+        <v>0.1051786679847879</v>
       </c>
       <c r="D9">
-        <v>0.06990857804593276</v>
+        <v>0.1001733329736822</v>
       </c>
       <c r="E9">
-        <v>9.628566402517322</v>
+        <v>1.717368646994174</v>
       </c>
       <c r="F9">
-        <v>0.3535353346152661</v>
+        <v>0.3273257980840896</v>
       </c>
       <c r="G9">
-        <v>0.3437420071977115</v>
+        <v>0.2060756962325669</v>
       </c>
       <c r="H9">
-        <v>0.1073850740604883</v>
+        <v>0.01764617298185234</v>
       </c>
       <c r="I9">
-        <v>0.2506530813351411</v>
+        <v>0.02340642094381629</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1853473565178092</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2495111926973088</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>36.33381454276065</v>
+        <v>6.693602462033368</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.775463195765667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0708452239269235</v>
+        <v>0.1236530406554266</v>
       </c>
       <c r="D10">
-        <v>0.06990857804593276</v>
+        <v>0.1187750784515487</v>
       </c>
       <c r="E10">
-        <v>9.628566402517322</v>
+        <v>1.93448560335996</v>
       </c>
       <c r="F10">
-        <v>0.3535353346152661</v>
+        <v>0.3572421082161341</v>
       </c>
       <c r="G10">
-        <v>0.3437420071977115</v>
+        <v>0.2206106760292528</v>
       </c>
       <c r="H10">
-        <v>0.1073850740604883</v>
+        <v>0.02434770924897123</v>
       </c>
       <c r="I10">
-        <v>0.2506530813351411</v>
+        <v>0.03113936658312877</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1832587974693141</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2648353093102074</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>36.33381454276065</v>
+        <v>7.913840970642752</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8024128927875864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0708452239269235</v>
+        <v>0.1364096892086337</v>
       </c>
       <c r="D11">
-        <v>0.06990857804593276</v>
+        <v>0.1398093821025412</v>
       </c>
       <c r="E11">
-        <v>9.628566402517322</v>
+        <v>1.249552028230738</v>
       </c>
       <c r="F11">
-        <v>0.3535353346152661</v>
+        <v>0.3196035242511996</v>
       </c>
       <c r="G11">
-        <v>0.3437420071977115</v>
+        <v>0.1813792734754642</v>
       </c>
       <c r="H11">
-        <v>0.1073850740604883</v>
+        <v>0.03990461356102415</v>
       </c>
       <c r="I11">
-        <v>0.2506530813351411</v>
+        <v>0.03371729717728744</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1595294156769924</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2332641532001531</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>36.33381454276065</v>
+        <v>8.458104852492795</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.6697142201078066</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0708452239269235</v>
+        <v>0.1460700281936909</v>
       </c>
       <c r="D12">
-        <v>0.06990857804593276</v>
+        <v>0.1539957725857448</v>
       </c>
       <c r="E12">
-        <v>9.628566402517322</v>
+        <v>0.7570552894237323</v>
       </c>
       <c r="F12">
-        <v>0.3535353346152661</v>
+        <v>0.2845337852297831</v>
       </c>
       <c r="G12">
-        <v>0.3437420071977115</v>
+        <v>0.1493911535530472</v>
       </c>
       <c r="H12">
-        <v>0.1073850740604883</v>
+        <v>0.07598844923576564</v>
       </c>
       <c r="I12">
-        <v>0.2506530813351411</v>
+        <v>0.03409328929265865</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1417336791282295</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2067754058104931</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.33381454276065</v>
+        <v>8.660616968074123</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.5646758126616191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0708452239269235</v>
+        <v>0.1517774046409954</v>
       </c>
       <c r="D13">
-        <v>0.06990857804593276</v>
+        <v>0.1639463875148977</v>
       </c>
       <c r="E13">
-        <v>9.628566402517322</v>
+        <v>0.3841320893846287</v>
       </c>
       <c r="F13">
-        <v>0.3535353346152661</v>
+        <v>0.2475489300956113</v>
       </c>
       <c r="G13">
-        <v>0.3437420071977115</v>
+        <v>0.1193823216364365</v>
       </c>
       <c r="H13">
-        <v>0.1073850740604883</v>
+        <v>0.129202725588641</v>
       </c>
       <c r="I13">
-        <v>0.2506530813351411</v>
+        <v>0.03299577803590203</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1265231758531371</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1804119145310779</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>36.33381454276065</v>
+        <v>8.609644645279275</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.4691549796164622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0708452239269235</v>
+        <v>0.1535647998300647</v>
       </c>
       <c r="D14">
-        <v>0.06990857804593276</v>
+        <v>0.1690810951514692</v>
       </c>
       <c r="E14">
-        <v>9.628566402517322</v>
+        <v>0.1955720516171695</v>
       </c>
       <c r="F14">
-        <v>0.3535353346152661</v>
+        <v>0.2209445712823594</v>
       </c>
       <c r="G14">
-        <v>0.3437420071977115</v>
+        <v>0.09958710822841255</v>
       </c>
       <c r="H14">
-        <v>0.1073850740604883</v>
+        <v>0.1768984249628147</v>
       </c>
       <c r="I14">
-        <v>0.2506530813351411</v>
+        <v>0.03166003688079666</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1171389279115971</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1620038539511661</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>36.33381454276065</v>
+        <v>8.459197422254476</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.4074608232065202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0708452239269235</v>
+        <v>0.1524475429709611</v>
       </c>
       <c r="D15">
-        <v>0.06990857804593276</v>
+        <v>0.1694226030504637</v>
       </c>
       <c r="E15">
-        <v>9.628566402517322</v>
+        <v>0.1586455768212822</v>
       </c>
       <c r="F15">
-        <v>0.3535353346152661</v>
+        <v>0.213594592756202</v>
       </c>
       <c r="G15">
-        <v>0.3437420071977115</v>
+        <v>0.09462154186390848</v>
       </c>
       <c r="H15">
-        <v>0.1073850740604883</v>
+        <v>0.1888519960645141</v>
       </c>
       <c r="I15">
-        <v>0.2506530813351411</v>
+        <v>0.03108595245321943</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.115149077058895</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1570177228064189</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>36.33381454276065</v>
+        <v>8.368320409588762</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.3927265455388635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0708452239269235</v>
+        <v>0.14230053266499</v>
       </c>
       <c r="D16">
-        <v>0.06990857804593276</v>
+        <v>0.1591257220528774</v>
       </c>
       <c r="E16">
-        <v>9.628566402517322</v>
+        <v>0.1552743135334893</v>
       </c>
       <c r="F16">
-        <v>0.3535353346152661</v>
+        <v>0.2077479008404453</v>
       </c>
       <c r="G16">
-        <v>0.3437420071977115</v>
+        <v>0.09398354252439134</v>
       </c>
       <c r="H16">
-        <v>0.1073850740604883</v>
+        <v>0.1740242393788378</v>
       </c>
       <c r="I16">
-        <v>0.2506530813351411</v>
+        <v>0.02801894610869216</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1186759934134685</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1552010507757409</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>36.33381454276065</v>
+        <v>7.851894117168854</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.3985513298458017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0708452239269235</v>
+        <v>0.1335305981217942</v>
       </c>
       <c r="D17">
-        <v>0.06990857804593276</v>
+        <v>0.148538474665088</v>
       </c>
       <c r="E17">
-        <v>9.628566402517322</v>
+        <v>0.2392250391109769</v>
       </c>
       <c r="F17">
-        <v>0.3535353346152661</v>
+        <v>0.2172654233018321</v>
       </c>
       <c r="G17">
-        <v>0.3437420071977115</v>
+        <v>0.1037738321396162</v>
       </c>
       <c r="H17">
-        <v>0.1073850740604883</v>
+        <v>0.1354483594121945</v>
       </c>
       <c r="I17">
-        <v>0.2506530813351411</v>
+        <v>0.02640666597684227</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1263189319113707</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1634145226340564</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>36.33381454276065</v>
+        <v>7.536649163451045</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.435192180945208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0708452239269235</v>
+        <v>0.1264318351352216</v>
       </c>
       <c r="D18">
-        <v>0.06990857804593276</v>
+        <v>0.1365351477937082</v>
       </c>
       <c r="E18">
-        <v>9.628566402517322</v>
+        <v>0.4709898693221533</v>
       </c>
       <c r="F18">
-        <v>0.3535353346152661</v>
+        <v>0.2424973514088364</v>
       </c>
       <c r="G18">
-        <v>0.3437420071977115</v>
+        <v>0.1255227672139014</v>
       </c>
       <c r="H18">
-        <v>0.1073850740604883</v>
+        <v>0.08325517579529418</v>
       </c>
       <c r="I18">
-        <v>0.2506530813351411</v>
+        <v>0.02566702561644441</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1391731461758852</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1827417479276505</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.33381454276065</v>
+        <v>7.358146473779072</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.5081677462082865</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0708452239269235</v>
+        <v>0.1188214093426438</v>
       </c>
       <c r="D19">
-        <v>0.06990857804593276</v>
+        <v>0.1251642074181945</v>
       </c>
       <c r="E19">
-        <v>9.628566402517322</v>
+        <v>0.9023174894820158</v>
       </c>
       <c r="F19">
-        <v>0.3535353346152661</v>
+        <v>0.2781900909109112</v>
       </c>
       <c r="G19">
-        <v>0.3437420071977115</v>
+        <v>0.1561380425076493</v>
       </c>
       <c r="H19">
-        <v>0.1073850740604883</v>
+        <v>0.04046671750242581</v>
       </c>
       <c r="I19">
-        <v>0.2506530813351411</v>
+        <v>0.02616733669582239</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1554256860730447</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2086724352258003</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.33381454276065</v>
+        <v>7.302364404457876</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.6071203291951548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0708452239269235</v>
+        <v>0.1147862646958657</v>
       </c>
       <c r="D20">
-        <v>0.06990857804593276</v>
+        <v>0.1146993292192775</v>
       </c>
       <c r="E20">
-        <v>9.628566402517322</v>
+        <v>1.872924962646564</v>
       </c>
       <c r="F20">
-        <v>0.3535353346152661</v>
+        <v>0.3453608828586781</v>
       </c>
       <c r="G20">
-        <v>0.3437420071977115</v>
+        <v>0.2131132343676754</v>
       </c>
       <c r="H20">
-        <v>0.1073850740604883</v>
+        <v>0.02243098470398719</v>
       </c>
       <c r="I20">
-        <v>0.2506530813351411</v>
+        <v>0.02951598524505261</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1819014558077754</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2561317453832963</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>36.33381454276065</v>
+        <v>7.592883358733559</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.7835425194592887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0708452239269235</v>
+        <v>0.1284723809611137</v>
       </c>
       <c r="D21">
-        <v>0.06990857804593276</v>
+        <v>0.1267909979701471</v>
       </c>
       <c r="E21">
-        <v>9.628566402517322</v>
+        <v>2.197760352942097</v>
       </c>
       <c r="F21">
-        <v>0.3535353346152661</v>
+        <v>0.379557838274259</v>
       </c>
       <c r="G21">
-        <v>0.3437420071977115</v>
+        <v>0.2345378926958261</v>
       </c>
       <c r="H21">
-        <v>0.1073850740604883</v>
+        <v>0.02905329551752711</v>
       </c>
       <c r="I21">
-        <v>0.2506530813351411</v>
+        <v>0.03604925515521007</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.185495790804481</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2761820887944495</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>36.33381454276065</v>
+        <v>8.53176689034683</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8368821067629142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0708452239269235</v>
+        <v>0.1393424006127617</v>
       </c>
       <c r="D22">
-        <v>0.06990857804593276</v>
+        <v>0.1350788395442351</v>
       </c>
       <c r="E22">
-        <v>9.628566402517322</v>
+        <v>2.359374036485121</v>
       </c>
       <c r="F22">
-        <v>0.3535353346152661</v>
+        <v>0.4012200749502455</v>
       </c>
       <c r="G22">
-        <v>0.3437420071977115</v>
+        <v>0.2479053115234393</v>
       </c>
       <c r="H22">
-        <v>0.1073850740604883</v>
+        <v>0.03336354284790177</v>
       </c>
       <c r="I22">
-        <v>0.2506530813351411</v>
+        <v>0.04031844962035702</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1876051093391382</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2893191915513285</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>36.33381454276065</v>
+        <v>9.145587066685493</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.8698847406101322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0708452239269235</v>
+        <v>0.1351015140142096</v>
       </c>
       <c r="D23">
-        <v>0.06990857804593276</v>
+        <v>0.1303639305116491</v>
       </c>
       <c r="E23">
-        <v>9.628566402517322</v>
+        <v>2.273105834269629</v>
       </c>
       <c r="F23">
-        <v>0.3535353346152661</v>
+        <v>0.3909159193324996</v>
       </c>
       <c r="G23">
-        <v>0.3437420071977115</v>
+        <v>0.2419256800831207</v>
       </c>
       <c r="H23">
-        <v>0.1073850740604883</v>
+        <v>0.03104450307412998</v>
       </c>
       <c r="I23">
-        <v>0.2506530813351411</v>
+        <v>0.03782064765355475</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1870664454775408</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2839355861562396</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>36.33381454276065</v>
+        <v>8.818090638842079</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.8559493457640599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0708452239269235</v>
+        <v>0.1163630455944826</v>
       </c>
       <c r="D24">
-        <v>0.06990857804593276</v>
+        <v>0.1130072806177225</v>
       </c>
       <c r="E24">
-        <v>9.628566402517322</v>
+        <v>1.948078257280741</v>
       </c>
       <c r="F24">
-        <v>0.3535353346152661</v>
+        <v>0.3515484477501047</v>
       </c>
       <c r="G24">
-        <v>0.3437420071977115</v>
+        <v>0.2189382824918198</v>
       </c>
       <c r="H24">
-        <v>0.1073850740604883</v>
+        <v>0.02286386791372474</v>
       </c>
       <c r="I24">
-        <v>0.2506530813351411</v>
+        <v>0.02922669138916945</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1849334476739415</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2617922414282781</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>36.33381454276065</v>
+        <v>7.578855784773452</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9110093455123405</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8022416124709224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0708452239269235</v>
+        <v>0.0959030379395216</v>
       </c>
       <c r="D25">
-        <v>0.06990857804593276</v>
+        <v>0.09431017910409878</v>
       </c>
       <c r="E25">
-        <v>9.628566402517322</v>
+        <v>1.600495156082104</v>
       </c>
       <c r="F25">
-        <v>0.3535353346152661</v>
+        <v>0.312596476695127</v>
       </c>
       <c r="G25">
-        <v>0.3437420071977115</v>
+        <v>0.1972971567380668</v>
       </c>
       <c r="H25">
-        <v>0.1073850740604883</v>
+        <v>0.01518069256410537</v>
       </c>
       <c r="I25">
-        <v>0.2506530813351411</v>
+        <v>0.02102212208915599</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1844443846329185</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2397969326417666</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>36.33381454276065</v>
+        <v>6.24360333354872</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9110093455123405</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7547632863325902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08431246490586375</v>
+        <v>0.05948074402081005</v>
       </c>
       <c r="D2">
-        <v>0.07985629656519677</v>
+        <v>0.08534412604654307</v>
       </c>
       <c r="E2">
-        <v>1.346427753635368</v>
+        <v>1.342005706405928</v>
       </c>
       <c r="F2">
-        <v>0.2897093931953023</v>
+        <v>0.2698054760697275</v>
       </c>
       <c r="G2">
-        <v>0.1866179034438957</v>
+        <v>0.1529110066270647</v>
       </c>
       <c r="H2">
-        <v>0.01034640933281341</v>
+        <v>0.009868852801826512</v>
       </c>
       <c r="I2">
-        <v>0.01528299115559673</v>
+        <v>0.01369920946886793</v>
       </c>
       <c r="J2">
-        <v>0.1869903262880186</v>
+        <v>0.2197355152023732</v>
       </c>
       <c r="K2">
-        <v>0.229009816758392</v>
+        <v>0.2042431486931555</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1359924187803045</v>
       </c>
       <c r="M2">
-        <v>5.260467998764341</v>
+        <v>0.04068461308687077</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>5.250133905198254</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.7370097045273099</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.6835580028152179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07412142512477971</v>
+        <v>0.0534475252953257</v>
       </c>
       <c r="D3">
-        <v>0.07045005084525968</v>
+        <v>0.07481859494301801</v>
       </c>
       <c r="E3">
-        <v>1.174781961478985</v>
+        <v>1.171477674082908</v>
       </c>
       <c r="F3">
-        <v>0.2736887166940249</v>
+        <v>0.2578070108205281</v>
       </c>
       <c r="G3">
-        <v>0.178863208499763</v>
+        <v>0.1483721097111541</v>
       </c>
       <c r="H3">
-        <v>0.007477009723072636</v>
+        <v>0.007154093229032377</v>
       </c>
       <c r="I3">
-        <v>0.01198964124805801</v>
+        <v>0.01098982049053454</v>
       </c>
       <c r="J3">
-        <v>0.1885830331531508</v>
+        <v>0.2214734337386659</v>
       </c>
       <c r="K3">
-        <v>0.2200920368063422</v>
+        <v>0.1997126660724078</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.139802921717834</v>
       </c>
       <c r="M3">
-        <v>4.592993212388194</v>
+        <v>0.03405400415346982</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>4.585300459908524</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.7235871820609248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.6808061384489719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06771149494144169</v>
+        <v>0.04959532676028999</v>
       </c>
       <c r="D4">
-        <v>0.06467864898866083</v>
+        <v>0.06837415983829231</v>
       </c>
       <c r="E4">
-        <v>1.069575271819588</v>
+        <v>1.066916339398063</v>
       </c>
       <c r="F4">
-        <v>0.2644005327657979</v>
+        <v>0.250878829666803</v>
       </c>
       <c r="G4">
-        <v>0.1745809773601223</v>
+        <v>0.1460536200916991</v>
       </c>
       <c r="H4">
-        <v>0.005895760652869009</v>
+        <v>0.00565530714243212</v>
       </c>
       <c r="I4">
-        <v>0.01013119104801463</v>
+        <v>0.009453764884310267</v>
       </c>
       <c r="J4">
-        <v>0.1898778437061281</v>
+        <v>0.2226896791352786</v>
       </c>
       <c r="K4">
-        <v>0.2148687578981843</v>
+        <v>0.197062554909337</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1421860357305071</v>
       </c>
       <c r="M4">
-        <v>4.182477620036025</v>
+        <v>0.03054513834183226</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4.176298529248299</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.71701753704059</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6804541222481646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06467870707908929</v>
+        <v>0.04767423857106934</v>
       </c>
       <c r="D5">
-        <v>0.06239732359949102</v>
+        <v>0.06582235893070276</v>
       </c>
       <c r="E5">
-        <v>1.026715234543573</v>
+        <v>1.024311751878969</v>
       </c>
       <c r="F5">
-        <v>0.2604070403527601</v>
+        <v>0.2478420481199635</v>
       </c>
       <c r="G5">
-        <v>0.1726370366445167</v>
+        <v>0.1449365319501439</v>
       </c>
       <c r="H5">
-        <v>0.005291687669507494</v>
+        <v>0.005082114896657997</v>
       </c>
       <c r="I5">
-        <v>0.009455685698532612</v>
+        <v>0.00891497889582471</v>
       </c>
       <c r="J5">
-        <v>0.1903188903721613</v>
+        <v>0.2230628879795731</v>
       </c>
       <c r="K5">
-        <v>0.2123793394486562</v>
+        <v>0.1956340706315025</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1429762651418258</v>
       </c>
       <c r="M5">
-        <v>4.014954282591418</v>
+        <v>0.02915693086968929</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>4.009372222228819</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7137350813464849</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6797049734583851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06370657743482155</v>
+        <v>0.04697176942833181</v>
       </c>
       <c r="D6">
-        <v>0.06210435143611903</v>
+        <v>0.06548499278955688</v>
       </c>
       <c r="E6">
-        <v>1.019579404628743</v>
+        <v>1.017219465452712</v>
       </c>
       <c r="F6">
-        <v>0.2593390055012748</v>
+        <v>0.2469573016032669</v>
       </c>
       <c r="G6">
-        <v>0.1719409455405412</v>
+        <v>0.1444139266011248</v>
       </c>
       <c r="H6">
-        <v>0.005192049470727933</v>
+        <v>0.004987596109588099</v>
       </c>
       <c r="I6">
-        <v>0.009407170920066044</v>
+        <v>0.008906844719103191</v>
       </c>
       <c r="J6">
-        <v>0.1901980619208885</v>
+        <v>0.2229337294149047</v>
       </c>
       <c r="K6">
-        <v>0.2114566363420636</v>
+        <v>0.194936642225862</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1428748437955321</v>
       </c>
       <c r="M6">
-        <v>3.987077586542625</v>
+        <v>0.02881511379299795</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>3.981597329628471</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.7119917145811598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6784748199597317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06638999645862498</v>
+        <v>0.04865180119198698</v>
       </c>
       <c r="D7">
-        <v>0.0648829710990384</v>
+        <v>0.0687199804211005</v>
       </c>
       <c r="E7">
-        <v>1.068941445559915</v>
+        <v>1.066257849949409</v>
       </c>
       <c r="F7">
-        <v>0.2632185402072196</v>
+        <v>0.2491462623293188</v>
       </c>
       <c r="G7">
-        <v>0.1735157916608898</v>
+        <v>0.1469281203248443</v>
       </c>
       <c r="H7">
-        <v>0.005882390064117171</v>
+        <v>0.005639882037106969</v>
       </c>
       <c r="I7">
-        <v>0.01027516305941578</v>
+        <v>0.009639432059014297</v>
       </c>
       <c r="J7">
-        <v>0.1893416828503973</v>
+        <v>0.2193008126603857</v>
       </c>
       <c r="K7">
-        <v>0.2134318745464334</v>
+        <v>0.1953513345590601</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.141365424510397</v>
       </c>
       <c r="M7">
-        <v>4.180089448549552</v>
+        <v>0.03006519642810446</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>4.17385379159748</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.7136343624005264</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.6755363544882442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07911539221782959</v>
+        <v>0.05647259989417108</v>
       </c>
       <c r="D8">
-        <v>0.07692627506853</v>
+        <v>0.08251382181708777</v>
       </c>
       <c r="E8">
-        <v>1.287119239193004</v>
+        <v>1.282990125213033</v>
       </c>
       <c r="F8">
-        <v>0.2825704005858896</v>
+        <v>0.2620772603003445</v>
       </c>
       <c r="G8">
-        <v>0.1824625673706848</v>
+        <v>0.1561435917780045</v>
       </c>
       <c r="H8">
-        <v>0.009309324420671714</v>
+        <v>0.008877318049306637</v>
       </c>
       <c r="I8">
-        <v>0.01428781213651753</v>
+        <v>0.01294734095740147</v>
       </c>
       <c r="J8">
-        <v>0.1867572068107606</v>
+        <v>0.2103647517493812</v>
       </c>
       <c r="K8">
-        <v>0.2240166381885906</v>
+        <v>0.1995803882419374</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1359174256415727</v>
       </c>
       <c r="M8">
-        <v>5.030270890880161</v>
+        <v>0.03731617530752906</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>5.020636446070966</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.7276030239830504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6722428169887564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1051786679847879</v>
+        <v>0.07206374351011391</v>
       </c>
       <c r="D9">
-        <v>0.1001733329736822</v>
+        <v>0.1087790465774106</v>
       </c>
       <c r="E9">
-        <v>1.717368646994174</v>
+        <v>1.710116702942429</v>
       </c>
       <c r="F9">
-        <v>0.3273257980840896</v>
+        <v>0.2954619334569912</v>
       </c>
       <c r="G9">
-        <v>0.2060756962325669</v>
+        <v>0.1732923784002622</v>
       </c>
       <c r="H9">
-        <v>0.01764617298185234</v>
+        <v>0.01673844196873675</v>
       </c>
       <c r="I9">
-        <v>0.02340642094381629</v>
+        <v>0.02030273598754739</v>
       </c>
       <c r="J9">
-        <v>0.1853473565178092</v>
+        <v>0.2050337782330871</v>
       </c>
       <c r="K9">
-        <v>0.2495111926973088</v>
+        <v>0.2128621671254365</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1273414712373793</v>
       </c>
       <c r="M9">
-        <v>6.693602462033368</v>
+        <v>0.05724687878660362</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>6.676487815610926</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.775463195765667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.6894965871598941</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1236530406554266</v>
+        <v>0.08398418781825256</v>
       </c>
       <c r="D10">
-        <v>0.1187750784515487</v>
+        <v>0.1305344038868412</v>
       </c>
       <c r="E10">
-        <v>1.93448560335996</v>
+        <v>1.9247156121302</v>
       </c>
       <c r="F10">
-        <v>0.3572421082161341</v>
+        <v>0.3135475524944553</v>
       </c>
       <c r="G10">
-        <v>0.2206106760292528</v>
+        <v>0.1949333932358286</v>
       </c>
       <c r="H10">
-        <v>0.02434770924897123</v>
+        <v>0.02300558248872608</v>
       </c>
       <c r="I10">
-        <v>0.03113936658312877</v>
+        <v>0.02649006101324147</v>
       </c>
       <c r="J10">
-        <v>0.1832587974693141</v>
+        <v>0.1849441882877088</v>
       </c>
       <c r="K10">
-        <v>0.2648353093102074</v>
+        <v>0.2171781614739601</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1190224411869245</v>
       </c>
       <c r="M10">
-        <v>7.913840970642752</v>
+        <v>0.07218018557821182</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>7.889984670291369</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8024128927875864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.6846114609943186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1364096892086337</v>
+        <v>0.09723880633691806</v>
       </c>
       <c r="D11">
-        <v>0.1398093821025412</v>
+        <v>0.1544508177719024</v>
       </c>
       <c r="E11">
-        <v>1.249552028230738</v>
+        <v>1.240967994787212</v>
       </c>
       <c r="F11">
-        <v>0.3196035242511996</v>
+        <v>0.2719514751424512</v>
       </c>
       <c r="G11">
-        <v>0.1813792734754642</v>
+        <v>0.1820697293869031</v>
       </c>
       <c r="H11">
-        <v>0.03990461356102415</v>
+        <v>0.03855704030284812</v>
       </c>
       <c r="I11">
-        <v>0.03371729717728744</v>
+        <v>0.02862255023248395</v>
       </c>
       <c r="J11">
-        <v>0.1595294156769924</v>
+        <v>0.14278386450939</v>
       </c>
       <c r="K11">
-        <v>0.2332641532001531</v>
+        <v>0.1857642466068725</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1039732063038379</v>
       </c>
       <c r="M11">
-        <v>8.458104852492795</v>
+        <v>0.06506965631866635</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.431481421967419</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.6697142201078066</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.5479042873660234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1460700281936909</v>
+        <v>0.1081661136671244</v>
       </c>
       <c r="D12">
-        <v>0.1539957725857448</v>
+        <v>0.1698712715603108</v>
       </c>
       <c r="E12">
-        <v>0.7570552894237323</v>
+        <v>0.7499360223859384</v>
       </c>
       <c r="F12">
-        <v>0.2845337852297831</v>
+        <v>0.2384371653079427</v>
       </c>
       <c r="G12">
-        <v>0.1493911535530472</v>
+        <v>0.1616241521076489</v>
       </c>
       <c r="H12">
-        <v>0.07598844923576564</v>
+        <v>0.074711509765649</v>
       </c>
       <c r="I12">
-        <v>0.03409328929265865</v>
+        <v>0.02888138019554365</v>
       </c>
       <c r="J12">
-        <v>0.1417336791282295</v>
+        <v>0.1257456890718487</v>
       </c>
       <c r="K12">
-        <v>0.2067754058104931</v>
+        <v>0.163017560896499</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09493508106493564</v>
       </c>
       <c r="M12">
-        <v>8.660616968074123</v>
+        <v>0.05746862447524492</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.633308937711206</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.5646758126616191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.4531674060432351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1517774046409954</v>
+        <v>0.1158892423106437</v>
       </c>
       <c r="D13">
-        <v>0.1639463875148977</v>
+        <v>0.1792475416260118</v>
       </c>
       <c r="E13">
-        <v>0.3841320893846287</v>
+        <v>0.3786143294464281</v>
       </c>
       <c r="F13">
-        <v>0.2475489300956113</v>
+        <v>0.2082331223556508</v>
       </c>
       <c r="G13">
-        <v>0.1193823216364365</v>
+        <v>0.129630221191789</v>
       </c>
       <c r="H13">
-        <v>0.129202725588641</v>
+        <v>0.128057701039296</v>
       </c>
       <c r="I13">
-        <v>0.03299577803590203</v>
+        <v>0.0280234487330695</v>
       </c>
       <c r="J13">
-        <v>0.1265231758531371</v>
+        <v>0.1214688940435185</v>
       </c>
       <c r="K13">
-        <v>0.1804119145310779</v>
+        <v>0.1440401238995008</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08889820902964907</v>
       </c>
       <c r="M13">
-        <v>8.609644645279275</v>
+        <v>0.04878720502544098</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.583430542832161</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.4691549796164622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.3806570586263121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1535647998300647</v>
+        <v>0.11952331792574</v>
       </c>
       <c r="D14">
-        <v>0.1690810951514692</v>
+        <v>0.1831170966963214</v>
       </c>
       <c r="E14">
-        <v>0.1955720516171695</v>
+        <v>0.1911235317052657</v>
       </c>
       <c r="F14">
-        <v>0.2209445712823594</v>
+        <v>0.1882730318292403</v>
       </c>
       <c r="G14">
-        <v>0.09958710822841255</v>
+        <v>0.1039625205702208</v>
       </c>
       <c r="H14">
-        <v>0.1768984249628147</v>
+        <v>0.17586340886443</v>
       </c>
       <c r="I14">
-        <v>0.03166003688079666</v>
+        <v>0.02702071601402167</v>
       </c>
       <c r="J14">
-        <v>0.1171389279115971</v>
+        <v>0.1221014156614366</v>
       </c>
       <c r="K14">
-        <v>0.1620038539511661</v>
+        <v>0.1320948342397763</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08573304347297039</v>
       </c>
       <c r="M14">
-        <v>8.459197422254476</v>
+        <v>0.04225663893432241</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.434500900411308</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.4074608232065202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.3389347065858601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1524475429709611</v>
+        <v>0.119081655247399</v>
       </c>
       <c r="D15">
-        <v>0.1694226030504637</v>
+        <v>0.1827844988017233</v>
       </c>
       <c r="E15">
-        <v>0.1586455768212822</v>
+        <v>0.154486122756321</v>
       </c>
       <c r="F15">
-        <v>0.213594592756202</v>
+        <v>0.1834178136414408</v>
       </c>
       <c r="G15">
-        <v>0.09462154186390848</v>
+        <v>0.09588768104737255</v>
       </c>
       <c r="H15">
-        <v>0.1888519960645141</v>
+        <v>0.1878600442570786</v>
       </c>
       <c r="I15">
-        <v>0.03108595245321943</v>
+        <v>0.02662837099605042</v>
       </c>
       <c r="J15">
-        <v>0.115149077058895</v>
+        <v>0.12374738610586</v>
       </c>
       <c r="K15">
-        <v>0.1570177228064189</v>
+        <v>0.129341300289763</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08529049921451382</v>
       </c>
       <c r="M15">
-        <v>8.368320409588762</v>
+        <v>0.04025591286218955</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.34436734412327</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.3927265455388635</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.3309647122112267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.14230053266499</v>
+        <v>0.1102743219077666</v>
       </c>
       <c r="D16">
-        <v>0.1591257220528774</v>
+        <v>0.1694713337626581</v>
       </c>
       <c r="E16">
-        <v>0.1552743135334893</v>
+        <v>0.1515845121710875</v>
       </c>
       <c r="F16">
-        <v>0.2077479008404453</v>
+        <v>0.1851440180019033</v>
       </c>
       <c r="G16">
-        <v>0.09398354252439134</v>
+        <v>0.08121050613253544</v>
       </c>
       <c r="H16">
-        <v>0.1740242393788378</v>
+        <v>0.1732044450911019</v>
       </c>
       <c r="I16">
-        <v>0.02801894610869216</v>
+        <v>0.02430754762087339</v>
       </c>
       <c r="J16">
-        <v>0.1186759934134685</v>
+        <v>0.140437569524039</v>
       </c>
       <c r="K16">
-        <v>0.1552010507757409</v>
+        <v>0.1330374582456137</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08936912861351232</v>
       </c>
       <c r="M16">
-        <v>7.851894117168854</v>
+        <v>0.03716576840042229</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>7.83137977505811</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.3985513298458017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.3537037587421139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1335305981217942</v>
+        <v>0.1018113545744654</v>
       </c>
       <c r="D17">
-        <v>0.148538474665088</v>
+        <v>0.1576331444316139</v>
       </c>
       <c r="E17">
-        <v>0.2392250391109769</v>
+        <v>0.2354218682292384</v>
       </c>
       <c r="F17">
-        <v>0.2172654233018321</v>
+        <v>0.1966025173266956</v>
       </c>
       <c r="G17">
-        <v>0.1037738321396162</v>
+        <v>0.08416311894672646</v>
       </c>
       <c r="H17">
-        <v>0.1354483594121945</v>
+        <v>0.1347001670329746</v>
       </c>
       <c r="I17">
-        <v>0.02640666597684227</v>
+        <v>0.02307636843785232</v>
       </c>
       <c r="J17">
-        <v>0.1263189319113707</v>
+        <v>0.1542447969551084</v>
       </c>
       <c r="K17">
-        <v>0.1634145226340564</v>
+        <v>0.1419337094365005</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09437032550953894</v>
       </c>
       <c r="M17">
-        <v>7.536649163451045</v>
+        <v>0.0379509277708685</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>7.517834295734588</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.435192180945208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.3928668441214711</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1264318351352216</v>
+        <v>0.09373659475949125</v>
       </c>
       <c r="D18">
-        <v>0.1365351477937082</v>
+        <v>0.14528886097672</v>
       </c>
       <c r="E18">
-        <v>0.4709898693221533</v>
+        <v>0.4665138839849874</v>
       </c>
       <c r="F18">
-        <v>0.2424973514088364</v>
+        <v>0.2201816324192194</v>
       </c>
       <c r="G18">
-        <v>0.1255227672139014</v>
+        <v>0.1003239944062528</v>
       </c>
       <c r="H18">
-        <v>0.08325517579529418</v>
+        <v>0.08249856741775119</v>
       </c>
       <c r="I18">
-        <v>0.02566702561644441</v>
+        <v>0.02241365125444794</v>
       </c>
       <c r="J18">
-        <v>0.1391731461758852</v>
+        <v>0.1688614010175655</v>
       </c>
       <c r="K18">
-        <v>0.1827417479276505</v>
+        <v>0.1583716307157168</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1015467950465183</v>
       </c>
       <c r="M18">
-        <v>7.358146473779072</v>
+        <v>0.04280430851436634</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.339897048655359</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.5081677462082865</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.4584026632618361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1188214093426438</v>
+        <v>0.0847862651962572</v>
       </c>
       <c r="D19">
-        <v>0.1251642074181945</v>
+        <v>0.1341018823562621</v>
       </c>
       <c r="E19">
-        <v>0.9023174894820158</v>
+        <v>0.8965961851993995</v>
       </c>
       <c r="F19">
-        <v>0.2781900909109112</v>
+        <v>0.2517962597433794</v>
       </c>
       <c r="G19">
-        <v>0.1561380425076493</v>
+        <v>0.1255252034215317</v>
       </c>
       <c r="H19">
-        <v>0.04046671750242581</v>
+        <v>0.03961858008831598</v>
       </c>
       <c r="I19">
-        <v>0.02616733669582239</v>
+        <v>0.02285332710946975</v>
       </c>
       <c r="J19">
-        <v>0.1554256860730447</v>
+        <v>0.1839264123457838</v>
       </c>
       <c r="K19">
-        <v>0.2086724352258003</v>
+        <v>0.1790148321452136</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1096461795350692</v>
       </c>
       <c r="M19">
-        <v>7.302364404457876</v>
+        <v>0.0503524654987757</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>7.283753617644209</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.6071203291951548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.5428895926000763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1147862646958657</v>
+        <v>0.07742900204439707</v>
       </c>
       <c r="D20">
-        <v>0.1146993292192775</v>
+        <v>0.1250860046787494</v>
       </c>
       <c r="E20">
-        <v>1.872924962646564</v>
+        <v>1.863985814183934</v>
       </c>
       <c r="F20">
-        <v>0.3453608828586781</v>
+        <v>0.3074209818482245</v>
       </c>
       <c r="G20">
-        <v>0.2131132343676754</v>
+        <v>0.1790721301256823</v>
       </c>
       <c r="H20">
-        <v>0.02243098470398719</v>
+        <v>0.02122948898493071</v>
       </c>
       <c r="I20">
-        <v>0.02951598524505261</v>
+        <v>0.02550901361974311</v>
       </c>
       <c r="J20">
-        <v>0.1819014558077754</v>
+        <v>0.1975952349748837</v>
       </c>
       <c r="K20">
-        <v>0.2561317453832963</v>
+        <v>0.2135722217889047</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1202746711162952</v>
       </c>
       <c r="M20">
-        <v>7.592883358733559</v>
+        <v>0.06713358789745882</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>7.571219499161145</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.7835425194592887</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.6819382245238756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1284723809611137</v>
+        <v>0.08793581558082764</v>
       </c>
       <c r="D21">
-        <v>0.1267909979701471</v>
+        <v>0.1426259363668265</v>
       </c>
       <c r="E21">
-        <v>2.197760352942097</v>
+        <v>2.18565775127756</v>
       </c>
       <c r="F21">
-        <v>0.379557838274259</v>
+        <v>0.3191047949441668</v>
       </c>
       <c r="G21">
-        <v>0.2345378926958261</v>
+        <v>0.2434526938746444</v>
       </c>
       <c r="H21">
-        <v>0.02905329551752711</v>
+        <v>0.02734846855760642</v>
       </c>
       <c r="I21">
-        <v>0.03604925515521007</v>
+        <v>0.03048455735916278</v>
       </c>
       <c r="J21">
-        <v>0.185495790804481</v>
+        <v>0.1468424502076857</v>
       </c>
       <c r="K21">
-        <v>0.2761820887944495</v>
+        <v>0.2154737343987385</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1136209950823286</v>
       </c>
       <c r="M21">
-        <v>8.53176689034683</v>
+        <v>0.07862340668102874</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.502827401547222</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8368821067629142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.6720345713437439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1393424006127617</v>
+        <v>0.09669385807984554</v>
       </c>
       <c r="D22">
-        <v>0.1350788395442351</v>
+        <v>0.1548006600214933</v>
       </c>
       <c r="E22">
-        <v>2.359374036485121</v>
+        <v>2.345224611260605</v>
       </c>
       <c r="F22">
-        <v>0.4012200749502455</v>
+        <v>0.3251037265714132</v>
       </c>
       <c r="G22">
-        <v>0.2479053115234393</v>
+        <v>0.292141706950531</v>
       </c>
       <c r="H22">
-        <v>0.03336354284790177</v>
+        <v>0.03131131259337527</v>
       </c>
       <c r="I22">
-        <v>0.04031844962035702</v>
+        <v>0.03359594378200459</v>
       </c>
       <c r="J22">
-        <v>0.1876051093391382</v>
+        <v>0.1213334743168986</v>
       </c>
       <c r="K22">
-        <v>0.2893191915513285</v>
+        <v>0.2161236029037106</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1091964957852731</v>
       </c>
       <c r="M22">
-        <v>9.145587066685493</v>
+        <v>0.08620075574895836</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>9.111607213870627</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.8698847406101322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.6614062374253251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1351015140142096</v>
+        <v>0.09286422257935811</v>
       </c>
       <c r="D23">
-        <v>0.1303639305116491</v>
+        <v>0.1475689146862749</v>
       </c>
       <c r="E23">
-        <v>2.273105834269629</v>
+        <v>2.260125521890672</v>
       </c>
       <c r="F23">
-        <v>0.3909159193324996</v>
+        <v>0.324675715115994</v>
       </c>
       <c r="G23">
-        <v>0.2419256800831207</v>
+        <v>0.2611022611855631</v>
       </c>
       <c r="H23">
-        <v>0.03104450307412998</v>
+        <v>0.0291899849446442</v>
       </c>
       <c r="I23">
-        <v>0.03782064765355475</v>
+        <v>0.03167333041738019</v>
       </c>
       <c r="J23">
-        <v>0.1870664454775408</v>
+        <v>0.1379989230371912</v>
       </c>
       <c r="K23">
-        <v>0.2839355861562396</v>
+        <v>0.218214281972962</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1123597399315095</v>
       </c>
       <c r="M23">
-        <v>8.818090638842079</v>
+        <v>0.08317209413091575</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.786987474083162</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.8559493457640599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.6747845139512947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1163630455944826</v>
+        <v>0.07835875725569252</v>
       </c>
       <c r="D24">
-        <v>0.1130072806177225</v>
+        <v>0.1233532969913682</v>
       </c>
       <c r="E24">
-        <v>1.948078257280741</v>
+        <v>1.938936846763852</v>
       </c>
       <c r="F24">
-        <v>0.3515484477501047</v>
+        <v>0.3130437183003423</v>
       </c>
       <c r="G24">
-        <v>0.2189382824918198</v>
+        <v>0.1838276446991856</v>
       </c>
       <c r="H24">
-        <v>0.02286386791372474</v>
+        <v>0.02164414247020208</v>
       </c>
       <c r="I24">
-        <v>0.02922669138916945</v>
+        <v>0.02510092381327045</v>
       </c>
       <c r="J24">
-        <v>0.1849334476739415</v>
+        <v>0.2006524388172792</v>
       </c>
       <c r="K24">
-        <v>0.2617922414282781</v>
+        <v>0.2183060661038745</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1221205112443187</v>
       </c>
       <c r="M24">
-        <v>7.578855784773452</v>
+        <v>0.06887829122067046</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>7.557142304358706</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8022416124709224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.698395583178268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0959030379395216</v>
+        <v>0.06598702193066686</v>
       </c>
       <c r="D25">
-        <v>0.09431017910409878</v>
+        <v>0.101880966693642</v>
       </c>
       <c r="E25">
-        <v>1.600495156082104</v>
+        <v>1.594198843643994</v>
       </c>
       <c r="F25">
-        <v>0.312596476695127</v>
+        <v>0.2849905750030501</v>
       </c>
       <c r="G25">
-        <v>0.1972971567380668</v>
+        <v>0.163793150155648</v>
       </c>
       <c r="H25">
-        <v>0.01518069256410537</v>
+        <v>0.01442296076418215</v>
       </c>
       <c r="I25">
-        <v>0.02102212208915599</v>
+        <v>0.01854361142984828</v>
       </c>
       <c r="J25">
-        <v>0.1844443846329185</v>
+        <v>0.2093247215277145</v>
       </c>
       <c r="K25">
-        <v>0.2397969326417666</v>
+        <v>0.2075087816673431</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1289743131153251</v>
       </c>
       <c r="M25">
-        <v>6.24360333354872</v>
+        <v>0.05076666456767853</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>6.228793629845939</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7547632863325902</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.6806441682740996</v>
       </c>
     </row>
   </sheetData>
